--- a/StrathE2E/Norwegian_Basin/2010-2019-ssp370/Target/annual_observed_NORWEGIAN_SEA_2011-2019.xlsx
+++ b/StrathE2E/Norwegian_Basin/2010-2019-ssp370/Target/annual_observed_NORWEGIAN_SEA_2011-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LaCie/Norwegian Basin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a43712/Desktop/MA.NorwegianBasin/StrathE2E/Norwegian_Basin/2010-2019-ssp370/Target/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F415061-F320-8241-98C8-B252BF4FFDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC06AF90-44CD-CE47-85B6-776BAF53C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37800" yWindow="-13020" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="216">
   <si>
     <t>Annual_measure</t>
   </si>
@@ -675,13 +675,22 @@
   </si>
   <si>
     <t>Fiskeridirektoratet</t>
+  </si>
+  <si>
+    <t>2010-2020</t>
+  </si>
+  <si>
+    <t>Morten Norwecom</t>
+  </si>
+  <si>
+    <t>Study area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +841,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1175,7 +1190,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1186,6 +1201,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1543,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1656,12 +1675,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>890</v>
+      </c>
+      <c r="B5">
+        <f>27.7*2</f>
+        <v>55.4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1675,13 +1695,23 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>215</v>
+      </c>
+      <c r="B6">
+        <f>8.32*2</f>
+        <v>16.64</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1694,6 +1724,15 @@
       </c>
       <c r="F6" t="s">
         <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -2465,8 +2504,8 @@
         <v>0.134184</v>
       </c>
       <c r="B36">
-        <f>0.2*A37</f>
-        <v>1.0963418000000001E-3</v>
+        <f>0.2*A36</f>
+        <v>2.6836800000000001E-2</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2491,12 +2530,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>5.4817090000000004E-3</v>
-      </c>
-      <c r="B37">
-        <f>0.15*A37</f>
-        <v>8.2225635000000006E-4</v>
+      <c r="A37" s="6">
+        <f>0.0006212673*0.503</f>
+        <v>3.1249745190000002E-4</v>
+      </c>
+      <c r="B37" s="7">
+        <f>0.2*A37</f>
+        <v>6.2499490380000006E-5</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2515,12 +2555,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>3.652293E-4</v>
-      </c>
-      <c r="B38">
-        <f>0.15*A38</f>
-        <v>5.4784394999999996E-5</v>
+      <c r="A38" s="6">
+        <f>0.00003338656*1.006</f>
+        <v>3.3586879359999998E-5</v>
+      </c>
+      <c r="B38" s="7">
+        <f>0.2*A38</f>
+        <v>6.717375872E-6</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3657,6 +3698,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
